--- a/Project_Slave_Container_V_1_2/Document/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Project_Slave_Container_V_1_2/Document/Mudbus RTU Level Sensor HS300x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saoviet_Git\Saoviet_Slave_Hs300x_Container_Ver_1_1\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saoviet_Git\Saoviet_Slave_Container\Project_Slave_Container_V_1_2\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,10 +104,6 @@
 Default: 0x1A (26 DEC))</t>
   </si>
   <si>
-    <t>Read the Baud rate
-Default:7(115200)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0(not display)
 1( ° C)
 2( ° K)
@@ -174,9 +170,6 @@
 d - Calib Humidity </t>
   </si>
   <si>
-    <t>2."AT+IF?". Information Slave</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -219,16 +212,23 @@
     <t>5."AT+BR=ID x". Setup baud rate. 0&lt;= x &lt;= 7.</t>
   </si>
   <si>
-    <t>6."AT+CLT=ID +x". Temperature calibration (increase)</t>
-  </si>
-  <si>
-    <t>7."AT+CLT=ID -x". Temperature calibration (reduce)</t>
-  </si>
-  <si>
-    <t>8."AT+CLH=ID +x". Humidity calibration (increase)</t>
-  </si>
-  <si>
-    <t>9."AT+CLH=ID -x". Humidity calibration (reduce)</t>
+    <t>2."AT+IF=ID". Information Slave</t>
+  </si>
+  <si>
+    <t>6."AT+CLT+=ID x". Temperature calibration (increase)</t>
+  </si>
+  <si>
+    <t>7."AT+CLT-=ID x". Temperature calibration (reduce)</t>
+  </si>
+  <si>
+    <t>8."AT+CLH+=ID x". Humidity calibration (increase)</t>
+  </si>
+  <si>
+    <t>9."AT+CLH-=ID x". Humidity calibration (reduce)</t>
+  </si>
+  <si>
+    <t>Read the Baud rate
+Default:7(9600)</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,22 +601,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -831,63 +831,63 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -907,61 +907,61 @@
     </row>
     <row r="19" spans="1:6" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="10"/>
     </row>
